--- a/public/files/plantillas/IRHOS20221102A1.xlsx
+++ b/public/files/plantillas/IRHOS20221102A1.xlsx
@@ -86,7 +86,7 @@
     <t>pertenece_irc</t>
   </si>
   <si>
-    <t>mes-año</t>
+    <t>mes-year</t>
   </si>
 </sst>
 </file>
@@ -414,7 +414,7 @@
   <dimension ref="A1:U1"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="S8" sqref="S8"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/public/files/plantillas/IRHOS20221102A1.xlsx
+++ b/public/files/plantillas/IRHOS20221102A1.xlsx
@@ -122,15 +122,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,32 +410,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="21.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" style="2" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="11.42578125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -463,13 +462,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -481,10 +480,10 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
       <c r="P1" s="1" t="s">
@@ -493,10 +492,10 @@
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="T1" s="1" t="s">
